--- a/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
+++ b/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/GrantGetByType/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="1060" yWindow="-21140" windowWidth="37420" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="GrantGetByType" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -208,19 +219,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>查询成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>tenantId不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR4002",
-    "resMsg": "授权关系不存在",
-    "successful": 0
-}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -300,49 +299,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from tenant_user_grant where user_id = 699222007535509504;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
  "tenantUserId":"000113"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "id": 700311580205498368,
-            "tenantId": "1001",
-            "userId": 699222007535509504,
-            "parentId": 0,
-            "typeId": 2,
-            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
-            "status": "success",
-            "createTime": "2020-04-16T11:48:12.000+0800",
-            "updateTime": "2020-04-16T11:48:12.000+0800"
-        }
-    ]
 }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -383,27 +342,6 @@
  "typeIds":[]
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "id": 700311580205498368,
-            "tenantId": "1001",
-            "userId": 699222007535509504,
-            "parentId": 0,
-            "typeId": 2,
-            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
-            "status": "success",
-            "createTime": "2020-04-16T11:48:12.000+0800",
-            "updateTime": "2020-04-16T11:48:12.000+0800"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -449,7 +387,7 @@
   </si>
   <si>
     <t>tenantId为空</t>
-    <rPh sb="13" eb="14">
+    <rPh sb="0" eb="10">
       <t>que'shi</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -460,7 +398,7 @@
   </si>
   <si>
     <t>userId为空</t>
-    <rPh sb="13" eb="14">
+    <rPh sb="0" eb="8">
       <t>wei'kong</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -471,13 +409,7 @@
       <t>wei</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wei'shou'quan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>de</t>
+      <t>yong'huwei'shou'quande</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -558,7 +490,25 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
+    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from tenant_user_grant where user_id = 699222007535509504</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("800311580205498368","1001","699222007535509504",1,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
@@ -567,22 +517,202 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12");
-insert into tenant_user_grant values ("800311580205498368","1001","699222007535509504",1,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from grant_type where id=202;
+delete from grant_type where id=203;
+delete from tenant_user_grant where user_id = 699222007535509504;</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "id": 000202,
+            "tenantId": "1001",
+            "userId": 699222007535509504,
+            "parentId": 0,
+            "typeId": 202,
+            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
+            "status": "success",
+            "createTime": "2020-04-16T11:48:12.000+0800",
+            "updateTime": "2020-04-16T11:48:12.000+0800"
+        },
+   {
+            "id": 000203,
+            "tenantId": "1001",
+            "userId": 699222007535509504,
+            "parentId": 0,
+            "typeId": 203,
+            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
+            "status": "failure",
+            "createTime": "2020-04-16T11:48:12.000+0800",
+            "updateTime": "2020-04-16T11:48:12.000+0800"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功-多个授权项</t>
+    <rPh sb="5" eb="6">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'quan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功-单个授权项</t>
+    <rPh sb="5" eb="6">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'quan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from grant_type where id=202;
+delete from tenant_user_grant where user_id = 699222007535509504;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"1","2020-04-16 10:48:12","2020-04-16 10:48:12")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "id": 000202,
+            "tenantId": "1001",
+            "userId": 699222007535509504,
+            "parentId": 0,
+            "typeId": 202,
+            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
+            "status": "success",
+            "createTime": "2020-04-16T11:48:12.000+0800",
+            "updateTime": "2020-04-16T11:48:12.000+0800"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-typeIds为不存在</t>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'cu'an'zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeIds":[2000]
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据创建不正确，缺少授权项的添加grant_type</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'zheng'que</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'sh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sho'quan'xiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian'jia</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (203,0,"unkownGrant",0,"www.baidu3.com");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"1","2020-04-16 10:48:12","2020-04-16 10:48:12");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000203","1001","699222007535509504",203,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR4002",
+    "resMsg": "授权关系不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR4003",
+    "resMsg": "授权服务类型不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +819,31 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -746,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -880,9 +1035,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -903,6 +1055,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1186,36 +1377,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.58203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="26.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="38" customWidth="1"/>
     <col min="15" max="15" width="33.83203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.9140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="5" customWidth="1"/>
     <col min="17" max="17" width="35" style="5" customWidth="1"/>
     <col min="18" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1422,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1268,406 +1459,442 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="372.5" customHeight="1">
+    <row r="2" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>40</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N2" s="36"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:17" ht="144" customHeight="1">
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>19</v>
+      <c r="B3" s="7"/>
+      <c r="C3" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="H3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N3" s="36"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" ht="80.5" customHeight="1">
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:17" ht="409.5">
+        <v>38</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:17" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="52" t="s">
-        <v>40</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" ht="409.5">
+        <v>40</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="43"/>
+    </row>
+    <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="51" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N6" s="36"/>
-      <c r="O6" s="46"/>
-    </row>
-    <row r="7" spans="1:17" ht="409.5">
+      <c r="O6" s="45"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="19" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="K7" s="52" t="s">
-        <v>48</v>
+      <c r="K7" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N7" s="36"/>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:17" ht="266">
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="28"/>
-      <c r="K8" s="18" t="s">
-        <v>53</v>
+      <c r="K8" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="138" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="28"/>
-      <c r="K9" s="18" t="s">
-        <v>52</v>
+      <c r="K9" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="266">
+        <v>76</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="44"/>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="330" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="N11" s="39"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="52" t="s">
-        <v>62</v>
+      <c r="K12" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="45"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="N12" s="39"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="48"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.5">
+      <c r="M13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" s="64" customFormat="1" ht="330" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.5">
+      <c r="B14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="19"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
       <c r="I15" s="17"/>
@@ -1676,13 +1903,13 @@
       <c r="L15" s="16"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="17.5">
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="19"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="48"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="15"/>
       <c r="H16" s="10"/>
       <c r="I16" s="17"/>
@@ -1691,13 +1918,13 @@
       <c r="L16" s="16"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="17.5">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="19"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="48"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="15"/>
       <c r="H17" s="10"/>
       <c r="I17" s="17"/>
@@ -1706,13 +1933,13 @@
       <c r="L17" s="16"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="17.5">
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="19"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="48"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="15"/>
       <c r="H18" s="10"/>
       <c r="I18" s="17"/>
@@ -1721,28 +1948,28 @@
       <c r="L18" s="16"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="167" customHeight="1">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="19"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="48"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="15"/>
       <c r="H19" s="10"/>
       <c r="I19" s="17"/>
       <c r="J19" s="28"/>
       <c r="K19" s="18"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:15" ht="207.5" customHeight="1">
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="19"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="48"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="15"/>
       <c r="H20" s="10"/>
       <c r="I20" s="17"/>
@@ -1751,28 +1978,28 @@
       <c r="L20" s="16"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="17.5">
+    <row r="21" spans="1:15" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="19"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="48"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="15"/>
       <c r="H21" s="10"/>
       <c r="I21" s="17"/>
       <c r="J21" s="28"/>
       <c r="K21" s="18"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="17.5">
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="19"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="48"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="15"/>
       <c r="H22" s="10"/>
       <c r="I22" s="17"/>
@@ -1780,16 +2007,14 @@
       <c r="K22" s="18"/>
       <c r="L22" s="16"/>
       <c r="M22" s="18"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="48"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="15"/>
       <c r="H23" s="10"/>
       <c r="I23" s="17"/>
@@ -1797,50 +2022,48 @@
       <c r="K23" s="18"/>
       <c r="L23" s="16"/>
       <c r="M23" s="18"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="19"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
       <c r="I24" s="17"/>
       <c r="J24" s="28"/>
       <c r="K24" s="18"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="21"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="39"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="19"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
       <c r="I25" s="17"/>
       <c r="J25" s="28"/>
       <c r="K25" s="18"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="21"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="39"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="17.5">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="19"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="48"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
       <c r="I26" s="17"/>
@@ -1848,105 +2071,109 @@
       <c r="K26" s="18"/>
       <c r="L26" s="16"/>
       <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.5">
+      <c r="N26" s="39"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="48"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
       <c r="I27" s="17"/>
       <c r="J27" s="28"/>
       <c r="K27" s="18"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:15" ht="17.5">
+      <c r="M27" s="21"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="48"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="15"/>
       <c r="H28" s="10"/>
       <c r="I28" s="17"/>
       <c r="J28" s="28"/>
       <c r="K28" s="18"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:15" ht="114.5" customHeight="1">
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="10"/>
       <c r="I29" s="17"/>
       <c r="J29" s="28"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:15" ht="119" customHeight="1">
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="10"/>
       <c r="I30" s="17"/>
       <c r="J30" s="28"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="169.5" customHeight="1">
+    <row r="31" spans="1:15" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="10"/>
       <c r="I31" s="17"/>
       <c r="J31" s="28"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:15" ht="17.5">
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+    </row>
+    <row r="32" spans="1:15" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="10"/>
       <c r="I32" s="17"/>
       <c r="J32" s="28"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.5">
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="10"/>
       <c r="I33" s="17"/>
       <c r="J33" s="28"/>
@@ -1954,14 +2181,14 @@
       <c r="L33" s="16"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="17.5">
+    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="10"/>
       <c r="I34" s="17"/>
       <c r="J34" s="28"/>
@@ -1969,13 +2196,13 @@
       <c r="L34" s="16"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="17.5">
+    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
       <c r="E35" s="22"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="22"/>
       <c r="H35" s="10"/>
       <c r="I35" s="17"/>
@@ -1984,13 +2211,13 @@
       <c r="L35" s="16"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="105" customHeight="1">
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="49"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="22"/>
       <c r="H36" s="10"/>
       <c r="I36" s="17"/>
@@ -1999,14 +2226,14 @@
       <c r="L36" s="16"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="17.5">
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="48"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10"/>
       <c r="I37" s="17"/>
       <c r="J37" s="28"/>
@@ -2014,14 +2241,14 @@
       <c r="L37" s="16"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="116.5" customHeight="1">
+    <row r="38" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="48"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="10"/>
       <c r="I38" s="17"/>
       <c r="J38" s="28"/>
@@ -2029,13 +2256,13 @@
       <c r="L38" s="16"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="17.5">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="19"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="48"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="15"/>
       <c r="H39" s="10"/>
       <c r="I39" s="17"/>
@@ -2044,13 +2271,13 @@
       <c r="L39" s="16"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="17.5">
+    <row r="40" spans="1:15" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="19"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="48"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="15"/>
       <c r="H40" s="10"/>
       <c r="I40" s="17"/>
@@ -2059,13 +2286,13 @@
       <c r="L40" s="16"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="17.5">
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="19"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="48"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="15"/>
       <c r="H41" s="10"/>
       <c r="I41" s="17"/>
@@ -2074,13 +2301,13 @@
       <c r="L41" s="16"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="117.5" customHeight="1">
+    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="19"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="48"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="15"/>
       <c r="H42" s="10"/>
       <c r="I42" s="17"/>
@@ -2089,13 +2316,13 @@
       <c r="L42" s="16"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="17.5">
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="19"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="15"/>
       <c r="H43" s="10"/>
       <c r="I43" s="17"/>
@@ -2104,13 +2331,13 @@
       <c r="L43" s="16"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="44" spans="1:15" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="19"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="15"/>
       <c r="H44" s="10"/>
       <c r="I44" s="17"/>
@@ -2118,16 +2345,14 @@
       <c r="K44" s="18"/>
       <c r="L44" s="16"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="19"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="48"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="15"/>
       <c r="H45" s="10"/>
       <c r="I45" s="17"/>
@@ -2135,16 +2360,14 @@
       <c r="K45" s="18"/>
       <c r="L45" s="16"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="19"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="48"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="15"/>
       <c r="H46" s="10"/>
       <c r="I46" s="17"/>
@@ -2155,30 +2378,30 @@
       <c r="N46" s="39"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="19"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="15"/>
       <c r="H47" s="10"/>
       <c r="I47" s="17"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="16"/>
       <c r="M47" s="18"/>
       <c r="N47" s="39"/>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="15"/>
       <c r="H48" s="10"/>
       <c r="I48" s="17"/>
@@ -2189,115 +2412,115 @@
       <c r="N48" s="39"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="15"/>
       <c r="H49" s="10"/>
       <c r="I49" s="17"/>
       <c r="J49" s="28"/>
-      <c r="K49" s="18"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="25"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="39"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="15"/>
       <c r="H50" s="10"/>
       <c r="I50" s="17"/>
       <c r="J50" s="28"/>
       <c r="K50" s="18"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="25"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="39"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="10"/>
       <c r="I51" s="17"/>
       <c r="J51" s="28"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="25"/>
       <c r="N51" s="39"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="10"/>
       <c r="I52" s="17"/>
       <c r="J52" s="28"/>
       <c r="K52" s="18"/>
-      <c r="L52" s="24"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="25"/>
       <c r="N52" s="39"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="48"/>
-      <c r="G53" s="15"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="10"/>
       <c r="I53" s="17"/>
       <c r="J53" s="28"/>
       <c r="K53" s="18"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="18"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
       <c r="N53" s="39"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="22"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="48"/>
-      <c r="G54" s="15"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="10"/>
       <c r="I54" s="17"/>
       <c r="J54" s="28"/>
       <c r="K54" s="18"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="18"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
       <c r="N54" s="39"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="22"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="48"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="15"/>
       <c r="H55" s="10"/>
       <c r="I55" s="17"/>
@@ -2308,13 +2531,13 @@
       <c r="N55" s="39"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="22"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="48"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="15"/>
       <c r="H56" s="10"/>
       <c r="I56" s="17"/>
@@ -2325,41 +2548,41 @@
       <c r="N56" s="39"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="10"/>
       <c r="I57" s="17"/>
       <c r="J57" s="28"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
       <c r="N57" s="39"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="10"/>
       <c r="I58" s="17"/>
       <c r="J58" s="28"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="31"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="39"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="22"/>
@@ -2376,7 +2599,7 @@
       <c r="N59" s="39"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="22"/>
@@ -2393,7 +2616,7 @@
       <c r="N60" s="39"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="22"/>
@@ -2410,7 +2633,7 @@
       <c r="N61" s="39"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="22"/>
@@ -2427,7 +2650,7 @@
       <c r="N62" s="39"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="22"/>
@@ -2444,7 +2667,7 @@
       <c r="N63" s="39"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="22"/>
@@ -2461,7 +2684,7 @@
       <c r="N64" s="39"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="22"/>
@@ -2478,7 +2701,7 @@
       <c r="N65" s="39"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="22"/>
@@ -2495,7 +2718,7 @@
       <c r="N66" s="39"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="22"/>
@@ -2512,7 +2735,7 @@
       <c r="N67" s="39"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="22"/>
@@ -2529,81 +2752,81 @@
       <c r="N68" s="39"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="22"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="15"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="10"/>
       <c r="I69" s="17"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="18"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31"/>
       <c r="N69" s="39"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="15"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="10"/>
       <c r="I70" s="17"/>
       <c r="J70" s="28"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="18"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="31"/>
       <c r="N70" s="39"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="48"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="15"/>
       <c r="H71" s="10"/>
       <c r="I71" s="17"/>
       <c r="J71" s="28"/>
       <c r="K71" s="18"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="21"/>
+      <c r="M71" s="18"/>
       <c r="N71" s="39"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="19"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="48"/>
+      <c r="F72" s="47"/>
       <c r="G72" s="15"/>
       <c r="H72" s="10"/>
       <c r="I72" s="17"/>
       <c r="J72" s="28"/>
       <c r="K72" s="18"/>
       <c r="L72" s="16"/>
-      <c r="M72" s="21"/>
+      <c r="M72" s="18"/>
       <c r="N72" s="39"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="19"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="48"/>
+      <c r="F73" s="47"/>
       <c r="G73" s="15"/>
       <c r="H73" s="10"/>
       <c r="I73" s="17"/>
@@ -2614,13 +2837,13 @@
       <c r="N73" s="39"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="19"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="48"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="15"/>
       <c r="H74" s="10"/>
       <c r="I74" s="17"/>
@@ -2631,45 +2854,47 @@
       <c r="N74" s="39"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="19"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="15"/>
       <c r="H75" s="10"/>
       <c r="I75" s="17"/>
       <c r="J75" s="28"/>
       <c r="K75" s="18"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
+      <c r="M75" s="21"/>
       <c r="N75" s="39"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" ht="17.5">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="19"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="48"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="15"/>
       <c r="H76" s="10"/>
       <c r="I76" s="17"/>
       <c r="J76" s="28"/>
       <c r="K76" s="18"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="18"/>
-    </row>
-    <row r="77" spans="1:15" ht="158.5" customHeight="1">
+      <c r="M76" s="21"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="19"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="48"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="15"/>
       <c r="H77" s="10"/>
       <c r="I77" s="17"/>
@@ -2677,149 +2902,151 @@
       <c r="K77" s="18"/>
       <c r="L77" s="16"/>
       <c r="M77" s="18"/>
-    </row>
-    <row r="78" spans="1:15" ht="17.5">
+      <c r="N77" s="39"/>
+      <c r="O77" s="12"/>
+    </row>
+    <row r="78" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="19"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="15"/>
       <c r="H78" s="10"/>
       <c r="I78" s="17"/>
       <c r="J78" s="28"/>
       <c r="K78" s="18"/>
       <c r="L78" s="16"/>
-      <c r="M78" s="21"/>
-    </row>
-    <row r="79" spans="1:15" ht="91.75" customHeight="1">
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="19"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="48"/>
+      <c r="F79" s="47"/>
       <c r="G79" s="15"/>
       <c r="H79" s="10"/>
       <c r="I79" s="17"/>
       <c r="J79" s="28"/>
       <c r="K79" s="18"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="21"/>
-    </row>
-    <row r="80" spans="1:15" ht="165" customHeight="1">
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="19"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="48"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="15"/>
       <c r="H80" s="10"/>
       <c r="I80" s="17"/>
       <c r="J80" s="28"/>
       <c r="K80" s="18"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="31"/>
-    </row>
-    <row r="81" spans="1:13" ht="108" customHeight="1">
+      <c r="L80" s="16"/>
+      <c r="M80" s="21"/>
+    </row>
+    <row r="81" spans="1:13" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="19"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="48"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="15"/>
       <c r="H81" s="10"/>
       <c r="I81" s="17"/>
       <c r="J81" s="28"/>
       <c r="K81" s="18"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="25"/>
-    </row>
-    <row r="82" spans="1:13" ht="101" customHeight="1">
+      <c r="M81" s="21"/>
+    </row>
+    <row r="82" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="19"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="48"/>
+      <c r="F82" s="47"/>
       <c r="G82" s="15"/>
       <c r="H82" s="10"/>
       <c r="I82" s="17"/>
       <c r="J82" s="28"/>
       <c r="K82" s="18"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="25"/>
-    </row>
-    <row r="83" spans="1:13" ht="88" customHeight="1">
+      <c r="L82" s="30"/>
+      <c r="M82" s="31"/>
+    </row>
+    <row r="83" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="22"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="10"/>
       <c r="I83" s="17"/>
       <c r="J83" s="28"/>
       <c r="K83" s="18"/>
-      <c r="L83" s="24"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="25"/>
     </row>
-    <row r="84" spans="1:13" ht="98" customHeight="1">
+    <row r="84" spans="1:13" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="22"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="10"/>
       <c r="I84" s="17"/>
       <c r="J84" s="28"/>
       <c r="K84" s="18"/>
-      <c r="L84" s="24"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="25"/>
     </row>
-    <row r="85" spans="1:13" ht="156" customHeight="1">
+    <row r="85" spans="1:13" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="22"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="48"/>
-      <c r="G85" s="15"/>
+      <c r="G85" s="22"/>
       <c r="H85" s="10"/>
       <c r="I85" s="17"/>
       <c r="J85" s="28"/>
       <c r="K85" s="18"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="18"/>
-    </row>
-    <row r="86" spans="1:13" ht="172.5" customHeight="1">
+      <c r="L85" s="24"/>
+      <c r="M85" s="25"/>
+    </row>
+    <row r="86" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="22"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="48"/>
-      <c r="G86" s="15"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="10"/>
       <c r="I86" s="17"/>
       <c r="J86" s="28"/>
       <c r="K86" s="18"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="18"/>
-    </row>
-    <row r="87" spans="1:13" ht="79" customHeight="1">
+      <c r="L86" s="24"/>
+      <c r="M86" s="25"/>
+    </row>
+    <row r="87" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="22"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="48"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="15"/>
       <c r="H87" s="10"/>
       <c r="I87" s="17"/>
@@ -2828,13 +3055,13 @@
       <c r="L87" s="16"/>
       <c r="M87" s="18"/>
     </row>
-    <row r="88" spans="1:13" ht="102.5" customHeight="1">
+    <row r="88" spans="1:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="22"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="48"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="15"/>
       <c r="H88" s="10"/>
       <c r="I88" s="17"/>
@@ -2843,13 +3070,13 @@
       <c r="L88" s="16"/>
       <c r="M88" s="18"/>
     </row>
-    <row r="89" spans="1:13" ht="51" customHeight="1">
+    <row r="89" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="22"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="48"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="15"/>
       <c r="H89" s="10"/>
       <c r="I89" s="17"/>
@@ -2858,13 +3085,13 @@
       <c r="L89" s="16"/>
       <c r="M89" s="18"/>
     </row>
-    <row r="90" spans="1:13" ht="121.25" customHeight="1">
+    <row r="90" spans="1:13" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="22"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="48"/>
+      <c r="F90" s="47"/>
       <c r="G90" s="15"/>
       <c r="H90" s="10"/>
       <c r="I90" s="17"/>
@@ -2873,13 +3100,13 @@
       <c r="L90" s="16"/>
       <c r="M90" s="18"/>
     </row>
-    <row r="91" spans="1:13" ht="49.5" customHeight="1">
+    <row r="91" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="22"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="48"/>
+      <c r="F91" s="47"/>
       <c r="G91" s="15"/>
       <c r="H91" s="10"/>
       <c r="I91" s="17"/>
@@ -2888,13 +3115,13 @@
       <c r="L91" s="16"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:13" ht="56.4" customHeight="1">
+    <row r="92" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="22"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="48"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="15"/>
       <c r="H92" s="10"/>
       <c r="I92" s="17"/>
@@ -2903,13 +3130,13 @@
       <c r="L92" s="16"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:13" ht="104" customHeight="1">
+    <row r="93" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="48"/>
+      <c r="F93" s="47"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10"/>
       <c r="I93" s="17"/>
@@ -2918,13 +3145,13 @@
       <c r="L93" s="16"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:13" ht="95.4" customHeight="1">
+    <row r="94" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
-      <c r="F94" s="48"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="15"/>
       <c r="H94" s="10"/>
       <c r="I94" s="17"/>
@@ -2933,13 +3160,13 @@
       <c r="L94" s="16"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:13" ht="78" customHeight="1">
+    <row r="95" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
-      <c r="F95" s="48"/>
+      <c r="F95" s="47"/>
       <c r="G95" s="15"/>
       <c r="H95" s="10"/>
       <c r="I95" s="17"/>
@@ -2948,13 +3175,13 @@
       <c r="L95" s="16"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:13" ht="17.5">
+    <row r="96" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
-      <c r="F96" s="48"/>
+      <c r="F96" s="47"/>
       <c r="G96" s="15"/>
       <c r="H96" s="10"/>
       <c r="I96" s="17"/>
@@ -2963,13 +3190,13 @@
       <c r="L96" s="16"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="17.5">
+    <row r="97" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
-      <c r="F97" s="48"/>
+      <c r="F97" s="47"/>
       <c r="G97" s="15"/>
       <c r="H97" s="10"/>
       <c r="I97" s="17"/>
@@ -2978,13 +3205,13 @@
       <c r="L97" s="16"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="17.5">
+    <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-      <c r="F98" s="48"/>
+      <c r="F98" s="47"/>
       <c r="G98" s="15"/>
       <c r="H98" s="10"/>
       <c r="I98" s="17"/>
@@ -2993,13 +3220,13 @@
       <c r="L98" s="16"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="17.5">
+    <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="48"/>
+      <c r="F99" s="47"/>
       <c r="G99" s="15"/>
       <c r="H99" s="10"/>
       <c r="I99" s="17"/>
@@ -3008,13 +3235,13 @@
       <c r="L99" s="16"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="17.5">
+    <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
-      <c r="F100" s="48"/>
+      <c r="F100" s="47"/>
       <c r="G100" s="15"/>
       <c r="H100" s="10"/>
       <c r="I100" s="17"/>
@@ -3023,13 +3250,13 @@
       <c r="L100" s="16"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="17.5">
+    <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="48"/>
+      <c r="F101" s="47"/>
       <c r="G101" s="15"/>
       <c r="H101" s="10"/>
       <c r="I101" s="17"/>
@@ -3038,13 +3265,13 @@
       <c r="L101" s="16"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="17.5">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="22"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="48"/>
+      <c r="F102" s="47"/>
       <c r="G102" s="15"/>
       <c r="H102" s="10"/>
       <c r="I102" s="17"/>
@@ -3053,13 +3280,13 @@
       <c r="L102" s="16"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13" ht="17.5">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="22"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="48"/>
+      <c r="F103" s="47"/>
       <c r="G103" s="15"/>
       <c r="H103" s="10"/>
       <c r="I103" s="17"/>
@@ -3068,13 +3295,13 @@
       <c r="L103" s="16"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13" ht="108" customHeight="1">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="22"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="48"/>
+      <c r="F104" s="47"/>
       <c r="G104" s="15"/>
       <c r="H104" s="10"/>
       <c r="I104" s="17"/>
@@ -3083,13 +3310,13 @@
       <c r="L104" s="16"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13" ht="17.5">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="22"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="48"/>
+      <c r="F105" s="47"/>
       <c r="G105" s="15"/>
       <c r="H105" s="10"/>
       <c r="I105" s="17"/>
@@ -3098,13 +3325,13 @@
       <c r="L105" s="16"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13" ht="17.5">
+    <row r="106" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="22"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="48"/>
+      <c r="F106" s="47"/>
       <c r="G106" s="15"/>
       <c r="H106" s="10"/>
       <c r="I106" s="17"/>
@@ -3113,13 +3340,13 @@
       <c r="L106" s="16"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13" ht="70.75" customHeight="1">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="22"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="48"/>
+      <c r="F107" s="47"/>
       <c r="G107" s="15"/>
       <c r="H107" s="10"/>
       <c r="I107" s="17"/>
@@ -3128,13 +3355,13 @@
       <c r="L107" s="16"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13" ht="17.5">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="22"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
-      <c r="F108" s="48"/>
+      <c r="F108" s="47"/>
       <c r="G108" s="15"/>
       <c r="H108" s="10"/>
       <c r="I108" s="17"/>
@@ -3143,14 +3370,14 @@
       <c r="L108" s="16"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13" ht="17.5">
+    <row r="109" spans="1:13" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="22"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="30"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="15"/>
       <c r="H109" s="10"/>
       <c r="I109" s="17"/>
       <c r="J109" s="28"/>
@@ -3158,14 +3385,14 @@
       <c r="L109" s="16"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="17.5">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="30"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="15"/>
       <c r="H110" s="10"/>
       <c r="I110" s="17"/>
       <c r="J110" s="28"/>
@@ -3173,7 +3400,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="17.5">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -3188,7 +3415,7 @@
       <c r="L111" s="16"/>
       <c r="M111" s="18"/>
     </row>
-    <row r="112" spans="1:13" ht="17.5">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="22"/>
@@ -3199,18 +3426,18 @@
       <c r="H112" s="10"/>
       <c r="I112" s="17"/>
       <c r="J112" s="28"/>
-      <c r="K112" s="21"/>
+      <c r="K112" s="18"/>
       <c r="L112" s="16"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="17.5">
+    <row r="113" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="22"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="15"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="30"/>
       <c r="H113" s="10"/>
       <c r="I113" s="17"/>
       <c r="J113" s="28"/>
@@ -3218,58 +3445,58 @@
       <c r="L113" s="16"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:15" ht="17.5">
+    <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="15"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="30"/>
       <c r="H114" s="10"/>
       <c r="I114" s="17"/>
       <c r="J114" s="28"/>
-      <c r="K114" s="18"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="16"/>
-      <c r="M114" s="25"/>
-    </row>
-    <row r="115" spans="1:15" ht="17.5">
+      <c r="M114" s="18"/>
+    </row>
+    <row r="115" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="22"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="22"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="15"/>
       <c r="H115" s="10"/>
       <c r="I115" s="17"/>
       <c r="J115" s="28"/>
       <c r="K115" s="18"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="25"/>
-    </row>
-    <row r="116" spans="1:15" ht="17.5">
+      <c r="L115" s="16"/>
+      <c r="M115" s="18"/>
+    </row>
+    <row r="116" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="22"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="15"/>
       <c r="H116" s="10"/>
       <c r="I116" s="17"/>
       <c r="J116" s="28"/>
       <c r="K116" s="18"/>
-      <c r="L116" s="24"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="25"/>
     </row>
-    <row r="117" spans="1:15" ht="17.5">
+    <row r="117" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="22"/>
       <c r="D117" s="23"/>
       <c r="E117" s="22"/>
-      <c r="F117" s="49"/>
+      <c r="F117" s="48"/>
       <c r="G117" s="22"/>
       <c r="H117" s="10"/>
       <c r="I117" s="17"/>
@@ -3278,13 +3505,13 @@
       <c r="L117" s="24"/>
       <c r="M117" s="25"/>
     </row>
-    <row r="118" spans="1:15" ht="17.5">
+    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="22"/>
       <c r="D118" s="23"/>
       <c r="E118" s="22"/>
-      <c r="F118" s="49"/>
+      <c r="F118" s="48"/>
       <c r="G118" s="22"/>
       <c r="H118" s="10"/>
       <c r="I118" s="17"/>
@@ -3293,13 +3520,13 @@
       <c r="L118" s="24"/>
       <c r="M118" s="25"/>
     </row>
-    <row r="119" spans="1:15" ht="17.5">
+    <row r="119" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="22"/>
       <c r="D119" s="23"/>
       <c r="E119" s="22"/>
-      <c r="F119" s="49"/>
+      <c r="F119" s="48"/>
       <c r="G119" s="22"/>
       <c r="H119" s="10"/>
       <c r="I119" s="17"/>
@@ -3308,13 +3535,13 @@
       <c r="L119" s="24"/>
       <c r="M119" s="25"/>
     </row>
-    <row r="120" spans="1:15" ht="88" customHeight="1">
+    <row r="120" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="22"/>
       <c r="D120" s="23"/>
       <c r="E120" s="22"/>
-      <c r="F120" s="49"/>
+      <c r="F120" s="48"/>
       <c r="G120" s="22"/>
       <c r="H120" s="10"/>
       <c r="I120" s="17"/>
@@ -3323,13 +3550,13 @@
       <c r="L120" s="24"/>
       <c r="M120" s="25"/>
     </row>
-    <row r="121" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="121" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="22"/>
       <c r="D121" s="23"/>
       <c r="E121" s="22"/>
-      <c r="F121" s="49"/>
+      <c r="F121" s="48"/>
       <c r="G121" s="22"/>
       <c r="H121" s="10"/>
       <c r="I121" s="17"/>
@@ -3337,16 +3564,14 @@
       <c r="K121" s="18"/>
       <c r="L121" s="24"/>
       <c r="M121" s="25"/>
-      <c r="N121" s="39"/>
-      <c r="O121" s="12"/>
-    </row>
-    <row r="122" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="122" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="22"/>
       <c r="D122" s="23"/>
       <c r="E122" s="22"/>
-      <c r="F122" s="49"/>
+      <c r="F122" s="48"/>
       <c r="G122" s="22"/>
       <c r="H122" s="10"/>
       <c r="I122" s="17"/>
@@ -3354,16 +3579,14 @@
       <c r="K122" s="18"/>
       <c r="L122" s="24"/>
       <c r="M122" s="25"/>
-      <c r="N122" s="39"/>
-      <c r="O122" s="12"/>
-    </row>
-    <row r="123" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="123" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="22"/>
       <c r="D123" s="23"/>
       <c r="E123" s="22"/>
-      <c r="F123" s="49"/>
+      <c r="F123" s="48"/>
       <c r="G123" s="22"/>
       <c r="H123" s="10"/>
       <c r="I123" s="17"/>
@@ -3374,126 +3597,126 @@
       <c r="N123" s="39"/>
       <c r="O123" s="12"/>
     </row>
-    <row r="124" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="124" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="48"/>
-      <c r="G124" s="15"/>
+      <c r="G124" s="22"/>
       <c r="H124" s="10"/>
       <c r="I124" s="17"/>
       <c r="J124" s="28"/>
       <c r="K124" s="18"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="18"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="25"/>
       <c r="N124" s="39"/>
       <c r="O124" s="12"/>
     </row>
-    <row r="125" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="125" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="48"/>
-      <c r="G125" s="15"/>
+      <c r="G125" s="22"/>
       <c r="H125" s="10"/>
       <c r="I125" s="17"/>
       <c r="J125" s="28"/>
       <c r="K125" s="18"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="18"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="25"/>
       <c r="N125" s="39"/>
       <c r="O125" s="12"/>
     </row>
-    <row r="126" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="126" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="19"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="48"/>
+      <c r="F126" s="47"/>
       <c r="G126" s="15"/>
       <c r="H126" s="10"/>
       <c r="I126" s="17"/>
       <c r="J126" s="28"/>
       <c r="K126" s="18"/>
       <c r="L126" s="16"/>
-      <c r="M126" s="25"/>
+      <c r="M126" s="18"/>
       <c r="N126" s="39"/>
       <c r="O126" s="12"/>
     </row>
-    <row r="127" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="127" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="19"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="48"/>
+      <c r="F127" s="47"/>
       <c r="G127" s="15"/>
       <c r="H127" s="10"/>
       <c r="I127" s="17"/>
       <c r="J127" s="28"/>
       <c r="K127" s="18"/>
       <c r="L127" s="16"/>
-      <c r="M127" s="25"/>
+      <c r="M127" s="18"/>
       <c r="N127" s="39"/>
       <c r="O127" s="12"/>
     </row>
-    <row r="128" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="128" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="22"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="15"/>
       <c r="H128" s="10"/>
       <c r="I128" s="17"/>
       <c r="J128" s="28"/>
       <c r="K128" s="18"/>
-      <c r="L128" s="24"/>
+      <c r="L128" s="16"/>
       <c r="M128" s="25"/>
       <c r="N128" s="39"/>
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="129" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="15"/>
       <c r="H129" s="10"/>
       <c r="I129" s="17"/>
       <c r="J129" s="28"/>
       <c r="K129" s="18"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="21"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="25"/>
       <c r="N129" s="39"/>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="130" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="14"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="22"/>
       <c r="H130" s="10"/>
-      <c r="I130" s="15"/>
+      <c r="I130" s="17"/>
       <c r="J130" s="28"/>
       <c r="K130" s="18"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="18"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="25"/>
       <c r="N130" s="39"/>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="131" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="19"/>
@@ -3502,18 +3725,18 @@
       <c r="F131" s="19"/>
       <c r="G131" s="14"/>
       <c r="H131" s="10"/>
-      <c r="I131" s="15"/>
+      <c r="I131" s="17"/>
       <c r="J131" s="28"/>
       <c r="K131" s="18"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="18"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="21"/>
       <c r="N131" s="39"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="132" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="29"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="19"/>
@@ -3527,7 +3750,7 @@
       <c r="N132" s="39"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="133" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="19"/>
@@ -3544,7 +3767,7 @@
       <c r="N133" s="39"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="134" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="19"/>
@@ -3561,7 +3784,7 @@
       <c r="N134" s="39"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="135" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="19"/>
@@ -3578,7 +3801,7 @@
       <c r="N135" s="39"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="136" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="19"/>
@@ -3595,7 +3818,7 @@
       <c r="N136" s="39"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1">
+    <row r="137" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="19"/>
@@ -3612,7 +3835,7 @@
       <c r="N137" s="39"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="138" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="19"/>
@@ -3629,7 +3852,7 @@
       <c r="N138" s="39"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="19"/>
@@ -3646,7 +3869,7 @@
       <c r="N139" s="39"/>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="140" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="19"/>
@@ -3663,7 +3886,7 @@
       <c r="N140" s="39"/>
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="141" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="19"/>
@@ -3680,7 +3903,7 @@
       <c r="N141" s="39"/>
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" ht="132.65" customHeight="1">
+    <row r="142" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="19"/>
@@ -3691,13 +3914,13 @@
       <c r="H142" s="10"/>
       <c r="I142" s="15"/>
       <c r="J142" s="28"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="21"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="18"/>
       <c r="N142" s="39"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="1:15" s="11" customFormat="1" ht="120.65" customHeight="1">
+    <row r="143" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -3714,7 +3937,7 @@
       <c r="N143" s="39"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="144" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="19"/>
@@ -3731,7 +3954,7 @@
       <c r="N144" s="39"/>
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1">
+    <row r="145" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="19"/>
@@ -3742,13 +3965,13 @@
       <c r="H145" s="10"/>
       <c r="I145" s="15"/>
       <c r="J145" s="28"/>
-      <c r="K145" s="21"/>
+      <c r="K145" s="18"/>
       <c r="L145" s="16"/>
-      <c r="M145" s="25"/>
+      <c r="M145" s="18"/>
       <c r="N145" s="39"/>
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1">
+    <row r="146" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="19"/>
@@ -3759,16 +3982,16 @@
       <c r="H146" s="10"/>
       <c r="I146" s="15"/>
       <c r="J146" s="28"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="16"/>
-      <c r="M146" s="25"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="21"/>
       <c r="N146" s="39"/>
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="147" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="22"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="19"/>
@@ -3776,16 +3999,16 @@
       <c r="H147" s="10"/>
       <c r="I147" s="15"/>
       <c r="J147" s="28"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="16"/>
       <c r="M147" s="25"/>
       <c r="N147" s="39"/>
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1">
+    <row r="148" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="22"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="19"/>
@@ -3794,12 +4017,12 @@
       <c r="I148" s="15"/>
       <c r="J148" s="28"/>
       <c r="K148" s="18"/>
-      <c r="L148" s="24"/>
+      <c r="L148" s="16"/>
       <c r="M148" s="25"/>
       <c r="N148" s="39"/>
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="1:15" s="11" customFormat="1" ht="63.65" customHeight="1">
+    <row r="149" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="22"/>
@@ -3811,12 +4034,12 @@
       <c r="I149" s="15"/>
       <c r="J149" s="28"/>
       <c r="K149" s="18"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="18"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="25"/>
       <c r="N149" s="39"/>
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1">
+    <row r="150" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="22"/>
@@ -3827,13 +4050,13 @@
       <c r="H150" s="10"/>
       <c r="I150" s="15"/>
       <c r="J150" s="28"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="21"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="25"/>
       <c r="N150" s="39"/>
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="1:15" ht="45.65" customHeight="1">
+    <row r="151" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="22"/>
@@ -3844,11 +4067,13 @@
       <c r="H151" s="10"/>
       <c r="I151" s="15"/>
       <c r="J151" s="28"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="21"/>
-    </row>
-    <row r="152" spans="1:15" ht="82.75" customHeight="1">
+      <c r="K151" s="18"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="39"/>
+      <c r="O151" s="12"/>
+    </row>
+    <row r="152" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="22"/>
@@ -3862,11 +4087,13 @@
       <c r="K152" s="21"/>
       <c r="L152" s="20"/>
       <c r="M152" s="21"/>
-    </row>
-    <row r="153" spans="1:15" ht="17.5">
+      <c r="N152" s="39"/>
+      <c r="O152" s="12"/>
+    </row>
+    <row r="153" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="19"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="F153" s="19"/>
@@ -3878,10 +4105,10 @@
       <c r="L153" s="20"/>
       <c r="M153" s="21"/>
     </row>
-    <row r="154" spans="1:15" ht="100.25" customHeight="1">
+    <row r="154" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="19"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
       <c r="F154" s="19"/>
@@ -3893,7 +4120,7 @@
       <c r="L154" s="20"/>
       <c r="M154" s="21"/>
     </row>
-    <row r="155" spans="1:15" ht="103.25" customHeight="1">
+    <row r="155" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="19"/>
@@ -3908,43 +4135,43 @@
       <c r="L155" s="20"/>
       <c r="M155" s="21"/>
     </row>
-    <row r="156" spans="1:15" ht="89.4" customHeight="1">
+    <row r="156" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="15"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="14"/>
       <c r="H156" s="10"/>
       <c r="I156" s="15"/>
       <c r="J156" s="28"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="16"/>
-      <c r="M156" s="18"/>
-    </row>
-    <row r="157" spans="1:15" ht="77.400000000000006" customHeight="1">
+      <c r="K156" s="21"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="21"/>
+    </row>
+    <row r="157" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="48"/>
-      <c r="G157" s="15"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="14"/>
       <c r="H157" s="10"/>
       <c r="I157" s="15"/>
       <c r="J157" s="28"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="16"/>
-      <c r="M157" s="18"/>
-    </row>
-    <row r="158" spans="1:15" ht="73.25" customHeight="1">
+      <c r="K157" s="21"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="21"/>
+    </row>
+    <row r="158" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="14"/>
+      <c r="C158" s="22"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="48"/>
+      <c r="F158" s="47"/>
       <c r="G158" s="15"/>
       <c r="H158" s="10"/>
       <c r="I158" s="15"/>
@@ -3952,16 +4179,14 @@
       <c r="K158" s="18"/>
       <c r="L158" s="16"/>
       <c r="M158" s="18"/>
-      <c r="N158" s="41"/>
-      <c r="O158" s="34"/>
-    </row>
-    <row r="159" spans="1:15" ht="102.5" customHeight="1">
+    </row>
+    <row r="159" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="14"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="48"/>
+      <c r="F159" s="47"/>
       <c r="G159" s="15"/>
       <c r="H159" s="10"/>
       <c r="I159" s="15"/>
@@ -3969,16 +4194,14 @@
       <c r="K159" s="18"/>
       <c r="L159" s="16"/>
       <c r="M159" s="18"/>
-      <c r="N159" s="41"/>
-      <c r="O159" s="34"/>
-    </row>
-    <row r="160" spans="1:15" ht="73.25" customHeight="1">
+    </row>
+    <row r="160" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="14"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="48"/>
+      <c r="F160" s="47"/>
       <c r="G160" s="15"/>
       <c r="H160" s="10"/>
       <c r="I160" s="15"/>
@@ -3986,14 +4209,16 @@
       <c r="K160" s="18"/>
       <c r="L160" s="16"/>
       <c r="M160" s="18"/>
-    </row>
-    <row r="161" spans="1:15" ht="67.75" customHeight="1">
+      <c r="N160" s="41"/>
+      <c r="O160" s="34"/>
+    </row>
+    <row r="161" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="19"/>
+      <c r="C161" s="14"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="48"/>
+      <c r="F161" s="47"/>
       <c r="G161" s="15"/>
       <c r="H161" s="10"/>
       <c r="I161" s="15"/>
@@ -4004,30 +4229,28 @@
       <c r="N161" s="41"/>
       <c r="O161" s="34"/>
     </row>
-    <row r="162" spans="1:15" ht="71.400000000000006" customHeight="1">
+    <row r="162" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="19"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="48"/>
+      <c r="F162" s="47"/>
       <c r="G162" s="15"/>
       <c r="H162" s="10"/>
       <c r="I162" s="15"/>
       <c r="J162" s="28"/>
-      <c r="K162" s="21"/>
+      <c r="K162" s="18"/>
       <c r="L162" s="16"/>
-      <c r="M162" s="32"/>
-      <c r="N162" s="41"/>
-      <c r="O162" s="34"/>
-    </row>
-    <row r="163" spans="1:15" ht="69.650000000000006" customHeight="1">
+      <c r="M162" s="18"/>
+    </row>
+    <row r="163" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="19"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="48"/>
+      <c r="F163" s="47"/>
       <c r="G163" s="15"/>
       <c r="H163" s="10"/>
       <c r="I163" s="15"/>
@@ -4038,111 +4261,115 @@
       <c r="N163" s="41"/>
       <c r="O163" s="34"/>
     </row>
-    <row r="164" spans="1:15" ht="43.25" customHeight="1">
+    <row r="164" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="19"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="48"/>
+      <c r="F164" s="47"/>
       <c r="G164" s="15"/>
       <c r="H164" s="10"/>
       <c r="I164" s="15"/>
       <c r="J164" s="28"/>
-      <c r="K164" s="33"/>
+      <c r="K164" s="21"/>
       <c r="L164" s="16"/>
-      <c r="M164" s="18"/>
+      <c r="M164" s="32"/>
       <c r="N164" s="41"/>
       <c r="O164" s="34"/>
     </row>
-    <row r="165" spans="1:15" ht="53.4" customHeight="1">
+    <row r="165" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="19"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="48"/>
+      <c r="F165" s="47"/>
       <c r="G165" s="15"/>
       <c r="H165" s="10"/>
       <c r="I165" s="15"/>
       <c r="J165" s="28"/>
       <c r="K165" s="18"/>
       <c r="L165" s="16"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="42"/>
+      <c r="M165" s="18"/>
+      <c r="N165" s="41"/>
       <c r="O165" s="34"/>
     </row>
-    <row r="166" spans="1:15" ht="79.25" customHeight="1">
+    <row r="166" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="19"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="48"/>
+      <c r="F166" s="47"/>
       <c r="G166" s="15"/>
       <c r="H166" s="10"/>
       <c r="I166" s="15"/>
       <c r="J166" s="28"/>
-      <c r="K166" s="18"/>
+      <c r="K166" s="33"/>
       <c r="L166" s="16"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="42"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="41"/>
       <c r="O166" s="34"/>
     </row>
-    <row r="167" spans="1:15" ht="120.65" customHeight="1">
+    <row r="167" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="19"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="48"/>
+      <c r="F167" s="47"/>
       <c r="G167" s="15"/>
       <c r="H167" s="10"/>
       <c r="I167" s="15"/>
       <c r="J167" s="28"/>
-      <c r="K167" s="21"/>
+      <c r="K167" s="18"/>
       <c r="L167" s="16"/>
-      <c r="M167" s="18"/>
+      <c r="M167" s="21"/>
       <c r="N167" s="42"/>
       <c r="O167" s="34"/>
     </row>
-    <row r="168" spans="1:15" ht="94.75" customHeight="1">
+    <row r="168" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="22"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="48"/>
+      <c r="F168" s="47"/>
       <c r="G168" s="15"/>
       <c r="H168" s="10"/>
       <c r="I168" s="15"/>
       <c r="J168" s="28"/>
       <c r="K168" s="18"/>
       <c r="L168" s="16"/>
-      <c r="M168" s="18"/>
-    </row>
-    <row r="169" spans="1:15" ht="67.75" customHeight="1">
+      <c r="M168" s="21"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="34"/>
+    </row>
+    <row r="169" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="22"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="48"/>
+      <c r="F169" s="47"/>
       <c r="G169" s="15"/>
       <c r="H169" s="10"/>
       <c r="I169" s="15"/>
       <c r="J169" s="28"/>
-      <c r="K169" s="18"/>
+      <c r="K169" s="21"/>
       <c r="L169" s="16"/>
       <c r="M169" s="18"/>
-    </row>
-    <row r="170" spans="1:15" ht="17.5">
+      <c r="N169" s="42"/>
+      <c r="O169" s="34"/>
+    </row>
+    <row r="170" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="22"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="48"/>
+      <c r="F170" s="47"/>
       <c r="G170" s="15"/>
       <c r="H170" s="10"/>
       <c r="I170" s="15"/>
@@ -4151,13 +4378,13 @@
       <c r="L170" s="16"/>
       <c r="M170" s="18"/>
     </row>
-    <row r="171" spans="1:15" ht="17.5">
+    <row r="171" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="22"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="48"/>
+      <c r="F171" s="47"/>
       <c r="G171" s="15"/>
       <c r="H171" s="10"/>
       <c r="I171" s="15"/>
@@ -4166,13 +4393,13 @@
       <c r="L171" s="16"/>
       <c r="M171" s="18"/>
     </row>
-    <row r="172" spans="1:15" ht="17.5">
+    <row r="172" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="22"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="48"/>
+      <c r="F172" s="47"/>
       <c r="G172" s="15"/>
       <c r="H172" s="10"/>
       <c r="I172" s="15"/>
@@ -4181,13 +4408,13 @@
       <c r="L172" s="16"/>
       <c r="M172" s="18"/>
     </row>
-    <row r="173" spans="1:15" ht="17.5">
+    <row r="173" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="22"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="48"/>
+      <c r="F173" s="47"/>
       <c r="G173" s="15"/>
       <c r="H173" s="10"/>
       <c r="I173" s="15"/>
@@ -4196,13 +4423,13 @@
       <c r="L173" s="16"/>
       <c r="M173" s="18"/>
     </row>
-    <row r="174" spans="1:15" ht="17.5">
+    <row r="174" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="22"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="48"/>
+      <c r="F174" s="47"/>
       <c r="G174" s="15"/>
       <c r="H174" s="10"/>
       <c r="I174" s="15"/>
@@ -4211,23 +4438,55 @@
       <c r="L174" s="16"/>
       <c r="M174" s="18"/>
     </row>
+    <row r="175" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="18"/>
+    </row>
+    <row r="176" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H9" r:id="rId11"/>
+    <hyperlink ref="H3" r:id="rId12"/>
+    <hyperlink ref="H6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
+++ b/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="-21140" windowWidth="37420" windowHeight="16180"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="GrantGetByType" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -526,6 +526,130 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>查询成功-多个授权项</t>
+    <rPh sb="5" eb="6">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'quan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功-单个授权项</t>
+    <rPh sb="5" eb="6">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'quan'xiang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from grant_type where id=202;
+delete from tenant_user_grant where user_id = 699222007535509504;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "id": 000202,
+            "tenantId": "1001",
+            "userId": 699222007535509504,
+            "parentId": 0,
+            "typeId": 202,
+            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
+            "status": "success",
+            "createTime": "2020-04-16T11:48:12.000+0800",
+            "updateTime": "2020-04-16T11:48:12.000+0800"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-typeIds为不存在</t>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'cu'an'zai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeIds":[2000]
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据创建不正确，缺少授权项的添加grant_type</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'zheng'que</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'sh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sho'quan'xiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian'jia</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR4002",
+    "resMsg": "授权关系不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR4003",
+    "resMsg": "授权服务类型不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -558,126 +682,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>查询成功-多个授权项</t>
-    <rPh sb="5" eb="6">
-      <t>duo'ge</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shou'quan'xiang</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询成功-单个授权项</t>
-    <rPh sb="5" eb="6">
-      <t>dan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shou'quan'xiang</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from grant_type where id=202;
-delete from tenant_user_grant where user_id = 699222007535509504;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
-insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"1","2020-04-16 10:48:12","2020-04-16 10:48:12")
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "id": 000202,
-            "tenantId": "1001",
-            "userId": 699222007535509504,
-            "parentId": 0,
-            "typeId": 202,
-            "account": "4f82d6478e368b2dbc23ff648ef7ef1f",
-            "status": "success",
-            "createTime": "2020-04-16T11:48:12.000+0800",
-            "updateTime": "2020-04-16T11:48:12.000+0800"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-typeIds为不存在</t>
-    <rPh sb="13" eb="14">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bu'cu'an'zai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"1001",
- "tenantUserId":"000113",
- "typeIds":[2000]
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据创建不正确，缺少授权项的添加grant_type</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuang'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'zheng'que</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>que'sh</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>sho'quan'xiang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>tian'jia</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-  </si>
-  <si>
     <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -686,26 +690,34 @@
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
 insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
 insert into  grant_type (id,parent_id,service_type,protocol,url) values (203,0,"unkownGrant",0,"www.baidu3.com");
-insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"1","2020-04-16 10:48:12","2020-04-16 10:48:12");
-insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000203","1001","699222007535509504",203,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000203","1001","699222007535509504",203,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"1","2020-04-16 10:48:12","2020-04-16 10:48:12")
 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "USR4002",
-    "resMsg": "授权关系不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR4003",
-    "resMsg": "授权服务类型不存在",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into  grant_type (id,parent_id,service_type,protocol,url) values (202,0,"unkownGrant",0,"www.baidu2.com");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("000202","1001","699222007535509504",202,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1379,9 +1391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1403,7 @@
     <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="54.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="86" style="38" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="36.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="26.83203125" style="8" customWidth="1"/>
@@ -1459,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1467,12 +1479,12 @@
         <v>23</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>62</v>
@@ -1491,7 +1503,7 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N2" s="36"/>
       <c r="O2" s="45"/>
@@ -1502,15 +1514,15 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>34</v>
@@ -1524,14 +1536,14 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="36"/>
       <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>24</v>
@@ -1562,7 +1574,7 @@
     </row>
     <row r="5" spans="1:17" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>25</v>
@@ -1593,7 +1605,7 @@
     </row>
     <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
@@ -1604,10 +1616,10 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>34</v>
@@ -1621,7 +1633,7 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="45"/>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="7" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
@@ -1641,10 +1653,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>34</v>
@@ -1658,14 +1670,14 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>28</v>
@@ -1676,7 +1688,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>59</v>
@@ -1693,23 +1705,23 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>59</v>
@@ -1722,18 +1734,18 @@
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N9" s="36"/>
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>29</v>
@@ -1762,7 +1774,7 @@
     </row>
     <row r="11" spans="1:17" s="11" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
@@ -1793,7 +1805,7 @@
     </row>
     <row r="12" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>31</v>
@@ -1824,7 +1836,7 @@
     </row>
     <row r="13" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>32</v>
@@ -1885,7 +1897,7 @@
       </c>
       <c r="N14" s="62"/>
       <c r="O14" s="63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">

--- a/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
+++ b/target/classes/caseconf/GrantGetByType/Case_GrantGetByType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/GrantGetByType/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/GrantGetByType/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="GrantGetByType" sheetId="2" r:id="rId1"/>
@@ -1391,9 +1391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
